--- a/ValidacionActividades/resultado_filtrado.xlsx
+++ b/ValidacionActividades/resultado_filtrado.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Filtrado" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filtrado!$A$1:$R$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filtrado!$A$1:$R$89</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="230">
   <si>
     <t>Índice</t>
   </si>
@@ -98,15 +98,15 @@
     <t>DEPARTAMENTO DE ESTUDIOS ORGANIZACIONALES Y DESARROLLO HUMANO</t>
   </si>
   <si>
-    <t>DEPARTAMENTO DE ENERGIA ELECTRICA</t>
-  </si>
-  <si>
     <t>DEPARTAMENTO DE CIENCIAS DE LOS ALIMENTOS Y BIOTECNOLOGIA</t>
   </si>
   <si>
     <t>DEPARTAMENTO DE MATERIALES</t>
   </si>
   <si>
+    <t>DEPARTAMENTO DE CIENCIAS SOCIALES</t>
+  </si>
+  <si>
     <t>INSTITUTO GEOFISICO DE LA ESCUELA POLITECNICA NACIONAL</t>
   </si>
   <si>
@@ -119,9 +119,6 @@
     <t>DEPARTAMENTO DE ECONOMIA CUANTITATIVA</t>
   </si>
   <si>
-    <t>DEPARTAMENTO DE CIENCIAS SOCIALES</t>
-  </si>
-  <si>
     <t>DEPARTAMENTO DE CIENCIAS NUCLEARES</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>CONVENIO</t>
   </si>
   <si>
-    <t>CONVENIO - CONTRATO CIVIL DE PRESTACION DE SERVICIOS PROFESIONALES</t>
-  </si>
-  <si>
     <t>TECNICO DOCENTE POLITECNICO A TIEMPO COMPLETO - CONTRATO</t>
   </si>
   <si>
@@ -203,6 +197,12 @@
     <t>TECNICO DE INVESTIGACION A TIEMPO COMPLETO - ESTUDIANTE MAESTRIA - CONTRATO</t>
   </si>
   <si>
+    <t>PROFESOR AUXILIAR A TIEMPO COMPLETO (NIVEL 2, GRADO 2) - NOMBRAMIENTO</t>
+  </si>
+  <si>
+    <t>TECNICO DOCENTE POLITECNICO A TIEMPO PARCIAL - CONTRATO DE SERVICIOS OCASIONALES</t>
+  </si>
+  <si>
     <t>PROFESOR AGREGADO A TIEMPO COMPLETO (NIVEL 2, GRADO 4) - NOMBRAMIENTO</t>
   </si>
   <si>
@@ -212,9 +212,6 @@
     <t>PROFESOR PRINCIPAL DE ESCALAFON PREVIO A TIEMPO PARCIAL - NOMBRAMIENTO</t>
   </si>
   <si>
-    <t>PROFESOR AUXILIAR A TIEMPO COMPLETO (NIVEL 2, GRADO 2) - NOMBRAMIENTO</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
@@ -368,19 +365,49 @@
     <t>IDENTIFICACIÓN: SIN IDENTIFICACIÓN/ NOMBRE: TIEMPO COMPLETO 2/ CARGO: PROFESOR OCASIONAL A TIEMPO COMPLETO - CONTRATO DE SERVICIOS OCASIONALES/ FECHA INICIO: 01/10/2025/ FECHA FIN: 28/02/2026</t>
   </si>
   <si>
-    <t>IDENTIFICACIÓN: SIN IDENTIFICACIÓN/ NOMBRE: GERMAN ISRAEL CASILLAS PEÑA/ CARGO: PROFESOR INVITADO A TIEMPO PARCIAL - CONTRATO CIVIL DE PRESTACION DE SERVICIOS PROFESIONALES/ FECHA INICIO: 29/09/2025/ FECHA FIN: 11/02/2026</t>
-  </si>
-  <si>
-    <t>IDENTIFICACIÓN: SIN IDENTIFICACIÓN/ NOMBRE: JURADO EGAS MAURO FABRICIO/ CARGO: PROFESOR INVITADO A TIEMPO PARCIAL - CONTRATO CIVIL DE PRESTACION DE SERVICIOS PROFESIONALES/ FECHA INICIO: 30/09/2025/ FECHA FIN: 19/02/2026</t>
-  </si>
-  <si>
-    <t>IDENTIFICACIÓN: SIN IDENTIFICACIÓN/ NOMBRE: VACA PENAFIEL ANGEL VLADIMIR/ CARGO: PROFESOR INVITADO A TIEMPO PARCIAL - CONTRATO CIVIL DE PRESTACION DE SERVICIOS PROFESIONALES/ FECHA INICIO: 29/09/2025/ FECHA FIN: 19/02/2026</t>
-  </si>
-  <si>
-    <t>IDENTIFICACIÓN: SIN IDENTIFICACIÓN/ NOMBRE: CONVENIO EPN-UNSJ/ CARGO: CONVENIO - CONTRATO CIVIL DE PRESTACION DE SERVICIOS PROFESIONALES/ FECHA INICIO: 30/09/2025/ FECHA FIN: 17/02/2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 1103404867/ NOMBRE: MALDONADO ALVARADO PEDRO GUSTAVO/ CARGO: PROFESOR AGREGADO A TIEMPO COMPLETO (NIVEL 1, GRADO 3) - NOMBRAMIENTO/ FECHA INICIO: / FECHA FIN: </t>
+    <t xml:space="preserve">IDENTIFICACIÓN: 0102311610/ NOMBRE: LEON TAMARIZ FABIAN/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 0107313041/ NOMBRE: HAMPEL HENRIETTA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 0301082897/ NOMBRE: ORTIZ ULLOA SILVIA JOHANA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 0301630802/ NOMBRE: NEIRA MOLINA VIVIAN ALEJANDRA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 045654862/ NOMBRE: DIEZ GARCIA NARDY DEL VALLE/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 0602243800/ NOMBRE: CAZAR RAMIREZ MARIA ELENA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 0906816889/ NOMBRE: MANZANO SANTANA PATRICIA ISABEL/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 0909678948/ NOMBRE: JIMENEZ FEIJOO MARIA ISABELITA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 0911105435/ NOMBRE: RUIZ BARZOLA OMAR HONORIO/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 0911692663/ NOMBRE: CALLE DELGADO KATIUSKA PAOLA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 0915084198/ NOMBRE: GALARZA ROMERO LUIS LENIN/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 0924157233/ NOMBRE: ORELLANA MANZANO ANDREA KATHERINE/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 1204229692/ NOMBRE: BARCOS ARIAS MILTON SENEN/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 1310261340/ NOMBRE: CEVALLOS CEVALLOS JUAN MANUEL/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: 1750967182/ NOMBRE: KHACHATRYAN ALEKSANDR/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
   </si>
   <si>
     <t xml:space="preserve">IDENTIFICACIÓN: 0604317370/ NOMBRE: GARCES VILEMA KARLA NATHALY/ CARGO: TECNICO DE INVESTIGACION A TIEMPO COMPLETO - ESTUDIANTE MAESTRIA - CONTRATO/ FECHA INICIO: / FECHA FIN: </t>
@@ -392,54 +419,6 @@
     <t xml:space="preserve">IDENTIFICACIÓN: 1715437057/ NOMBRE: TRUJILLO REGALADO SOFIA ISABEL/ CARGO: TECNICO DE INVESTIGACION A TIEMPO COMPLETO - CONTRATO/ FECHA INICIO: / FECHA FIN: </t>
   </si>
   <si>
-    <t>IDENTIFICACIÓN: 1723704357/ NOMBRE: ARELLANO VELEZ YIVIA DEYANIRA/ CARGO: TECNICO DE INVESTIGACION A TIEMPO COMPLETO - CONTRATO/ FECHA INICIO: 01/09/2025/ FECHA FIN: 28/02/2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 0102311610/ NOMBRE: LEON TAMARIZ FABIAN/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 0107313041/ NOMBRE: HAMPEL HENRIETTA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 0301082897/ NOMBRE: ORTIZ ULLOA SILVIA JOHANA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 0301630802/ NOMBRE: NEIRA MOLINA VIVIAN ALEJANDRA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 045654862/ NOMBRE: DIEZ GARCIA NARDY DEL VALLE/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 0602243800/ NOMBRE: CAZAR RAMIREZ MARIA ELENA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 0906816889/ NOMBRE: MANZANO SANTANA PATRICIA ISABEL/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 0909678948/ NOMBRE: JIMENEZ FEIJOO MARIA ISABELITA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 0911105435/ NOMBRE: RUIZ BARZOLA OMAR HONORIO/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 0911692663/ NOMBRE: CALLE DELGADO KATIUSKA PAOLA/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 0915084198/ NOMBRE: GALARZA ROMERO LUIS LENIN/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 0924157233/ NOMBRE: ORELLANA MANZANO ANDREA KATHERINE/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 1204229692/ NOMBRE: BARCOS ARIAS MILTON SENEN/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 1310261340/ NOMBRE: CEVALLOS CEVALLOS JUAN MANUEL/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACIÓN: 1750967182/ NOMBRE: KHACHATRYAN ALEKSANDR/ CARGO: CONVENIO INTERINSTITUCIONAL - CONVENIO/ FECHA INICIO: / FECHA FIN: </t>
-  </si>
-  <si>
     <t>IDENTIFICACIÓN: 1714907324/ NOMBRE: ROSAS LAVERDE NELLY MARIA/ CARGO: PROFESOR AGREGADO A TIEMPO COMPLETO (NIVEL 3, GRADO 5) - NOMBRAMIENTO/ FECHA INICIO: 01/09/2025/ FECHA FIN: 28/02/2026</t>
   </si>
   <si>
@@ -452,6 +431,12 @@
     <t>IDENTIFICACIÓN: 1720550811/ NOMBRE: SANCHEZ RIVADENEIRA FERNANDO GABRIEL/ CARGO: TECNICO DE LABORATORIO A TIEMPO COMPLETO - CONTRATO/ FECHA INICIO: 01/09/2025/ FECHA FIN: 28/02/2026</t>
   </si>
   <si>
+    <t>IDENTIFICACIÓN: 1706363981/ NOMBRE: CASTRO MEJIA JORGE VINICIO/ CARGO: PROFESOR AUXILIAR A TIEMPO COMPLETO (NIVEL 2, GRADO 2) - NOMBRAMIENTO/ FECHA INICIO: 01/09/2025/ FECHA FIN: 28/02/2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN: SIN IDENTIFICACIÓN/ NOMBRE: TECNICO DOCENTE CS 0/ CARGO: TECNICO DOCENTE POLITECNICO A TIEMPO PARCIAL - CONTRATO DE SERVICIOS OCASIONALES/ FECHA INICIO: / FECHA FIN: </t>
+  </si>
+  <si>
     <t>IDENTIFICACIÓN: 0102007176/ NOMBRE: AGUILAR JARAMILLO JORGE ARTURO/ CARGO: PROFESOR AGREGADO A TIEMPO COMPLETO (NIVEL 2, GRADO 4) - NOMBRAMIENTO/ FECHA INICIO: 01/09/2025/ FECHA FIN: 28/02/2026</t>
   </si>
   <si>
@@ -482,15 +467,6 @@
     <t>IDENTIFICACIÓN: 1712635620/ NOMBRE: GUACHAMIN GUERRA MARCELA ELIZABETH/ CARGO: PROFESOR AGREGADO A TIEMPO COMPLETO (NIVEL 1, GRADO 3) - NOMBRAMIENTO/ FECHA INICIO: 01/09/2025/ FECHA FIN: 28/02/2026</t>
   </si>
   <si>
-    <t>IDENTIFICACIÓN: 1706363981/ NOMBRE: CASTRO MEJIA JORGE VINICIO/ CARGO: PROFESOR AUXILIAR A TIEMPO COMPLETO (NIVEL 2, GRADO 2) - NOMBRAMIENTO/ FECHA INICIO: 01/09/2025/ FECHA FIN: 28/02/2026</t>
-  </si>
-  <si>
-    <t>IDENTIFICACIÓN: 1712538709/ NOMBRE: ZARY CORRAL PAULINA FABIOLA/ CARGO: PROFESOR AUXILIAR A TIEMPO COMPLETO (NIVEL 1, GRADO 1) - NOMBRAMIENTO/ FECHA INICIO: 01/09/2025/ FECHA FIN: 28/02/2026</t>
-  </si>
-  <si>
-    <t>IDENTIFICACIÓN: 1715691752/ NOMBRE: ALCARAS PANCHI EDWIN MARCELO/ CARGO: PROFESOR OCASIONAL A TIEMPO COMPLETO - CONTRATO/ FECHA INICIO: 01/09/2025/ FECHA FIN: 28/02/2026</t>
-  </si>
-  <si>
     <t xml:space="preserve">IDENTIFICACIÓN: 1714336565/ NOMBRE: VILLACIS OÑATE WILLIAM ESTUARDO/ CARGO: PROFESOR AUXILIAR A TIEMPO COMPLETO (NIVEL 2, GRADO 2) - NOMBRAMIENTO/ FECHA INICIO: / FECHA FIN: </t>
   </si>
   <si>
@@ -617,7 +593,49 @@
     <t>1756502009</t>
   </si>
   <si>
-    <t>1103404867</t>
+    <t>0102311610</t>
+  </si>
+  <si>
+    <t>0107313041</t>
+  </si>
+  <si>
+    <t>0301082897</t>
+  </si>
+  <si>
+    <t>0301630802</t>
+  </si>
+  <si>
+    <t>045654862</t>
+  </si>
+  <si>
+    <t>0602243800</t>
+  </si>
+  <si>
+    <t>0906816889</t>
+  </si>
+  <si>
+    <t>0909678948</t>
+  </si>
+  <si>
+    <t>0911105435</t>
+  </si>
+  <si>
+    <t>0911692663</t>
+  </si>
+  <si>
+    <t>0915084198</t>
+  </si>
+  <si>
+    <t>0924157233</t>
+  </si>
+  <si>
+    <t>1204229692</t>
+  </si>
+  <si>
+    <t>1310261340</t>
+  </si>
+  <si>
+    <t>1750967182</t>
   </si>
   <si>
     <t>0604317370</t>
@@ -629,54 +647,6 @@
     <t>1715437057</t>
   </si>
   <si>
-    <t>1723704357</t>
-  </si>
-  <si>
-    <t>0102311610</t>
-  </si>
-  <si>
-    <t>0107313041</t>
-  </si>
-  <si>
-    <t>0301082897</t>
-  </si>
-  <si>
-    <t>0301630802</t>
-  </si>
-  <si>
-    <t>045654862</t>
-  </si>
-  <si>
-    <t>0602243800</t>
-  </si>
-  <si>
-    <t>0906816889</t>
-  </si>
-  <si>
-    <t>0909678948</t>
-  </si>
-  <si>
-    <t>0911105435</t>
-  </si>
-  <si>
-    <t>0911692663</t>
-  </si>
-  <si>
-    <t>0915084198</t>
-  </si>
-  <si>
-    <t>0924157233</t>
-  </si>
-  <si>
-    <t>1204229692</t>
-  </si>
-  <si>
-    <t>1310261340</t>
-  </si>
-  <si>
-    <t>1750967182</t>
-  </si>
-  <si>
     <t>1714907324</t>
   </si>
   <si>
@@ -689,6 +659,9 @@
     <t>1720550811</t>
   </si>
   <si>
+    <t>1706363981</t>
+  </si>
+  <si>
     <t>0102007176</t>
   </si>
   <si>
@@ -707,15 +680,6 @@
     <t>1712635620</t>
   </si>
   <si>
-    <t>1706363981</t>
-  </si>
-  <si>
-    <t>1712538709</t>
-  </si>
-  <si>
-    <t>1715691752</t>
-  </si>
-  <si>
     <t>1714336565</t>
   </si>
   <si>
@@ -728,16 +692,16 @@
     <t>INGRESADO</t>
   </si>
   <si>
+    <t>PLANIFICADO INICIAL</t>
+  </si>
+  <si>
+    <t>ENVIADO INICIAL</t>
+  </si>
+  <si>
+    <t>POR RECTIFICAR INICIAL</t>
+  </si>
+  <si>
     <t>REVISION INICIAL</t>
-  </si>
-  <si>
-    <t>ENVIADO INICIAL</t>
-  </si>
-  <si>
-    <t>PLANIFICADO INICIAL</t>
-  </si>
-  <si>
-    <t>POR RECTIFICAR INICIAL</t>
   </si>
   <si>
     <t>No registra horas de Preparación y actualización de clases, seminarios, talleres, entre otros, No registra horas de Preparación, elaboración, aplicación y calificación de exámenes, trabajos y prácticas; consultas académicas</t>
@@ -1108,7 +1072,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1197,37 +1161,37 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1241,37 +1205,37 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1285,31 +1249,31 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="1">
         <v>45901</v>
@@ -1318,15 +1282,15 @@
         <v>46081</v>
       </c>
       <c r="O4" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="R4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1335,31 +1299,31 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" s="1">
         <v>45929</v>
@@ -1368,15 +1332,15 @@
         <v>46072</v>
       </c>
       <c r="O5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R5" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1385,31 +1349,31 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1">
         <v>45901</v>
@@ -1418,15 +1382,15 @@
         <v>46081</v>
       </c>
       <c r="O6" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="R6" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1435,42 +1399,42 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1479,31 +1443,31 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="1">
         <v>45901</v>
@@ -1512,15 +1476,15 @@
         <v>46081</v>
       </c>
       <c r="O8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R8" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1529,31 +1493,31 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M9" s="1">
         <v>45901</v>
@@ -1562,15 +1526,15 @@
         <v>46081</v>
       </c>
       <c r="O9" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="R9" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1579,42 +1543,42 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R10" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1623,31 +1587,31 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M11" s="1">
         <v>45901</v>
@@ -1656,18 +1620,18 @@
         <v>46081</v>
       </c>
       <c r="O11" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="P11">
         <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1676,42 +1640,42 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R12" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1720,42 +1684,42 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O13" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R13" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1764,31 +1728,31 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M14" s="1">
         <v>45901</v>
@@ -1797,7 +1761,7 @@
         <v>46081</v>
       </c>
       <c r="O14" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="P14">
         <v>90</v>
@@ -1806,12 +1770,12 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1820,31 +1784,31 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M15" s="1">
         <v>45901</v>
@@ -1853,18 +1817,18 @@
         <v>46081</v>
       </c>
       <c r="O15" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="P15">
         <v>36</v>
       </c>
       <c r="R15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1873,42 +1837,42 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O16" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R16" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1917,42 +1881,42 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O17" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R17" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1961,31 +1925,31 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M18" s="1">
         <v>45901</v>
@@ -1994,15 +1958,15 @@
         <v>46081</v>
       </c>
       <c r="O18" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="R18" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -2011,31 +1975,31 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M19" s="1">
         <v>45901</v>
@@ -2044,15 +2008,15 @@
         <v>46081</v>
       </c>
       <c r="O19" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="R19" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -2061,31 +2025,31 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M20" s="1">
         <v>45901</v>
@@ -2094,15 +2058,15 @@
         <v>46081</v>
       </c>
       <c r="O20" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="R20" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -2111,31 +2075,31 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M21" s="1">
         <v>45901</v>
@@ -2144,15 +2108,15 @@
         <v>46081</v>
       </c>
       <c r="O21" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="R21" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -2161,31 +2125,31 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M22" s="1">
         <v>45901</v>
@@ -2194,15 +2158,15 @@
         <v>46081</v>
       </c>
       <c r="O22" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="R22" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -2211,31 +2175,31 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M23" s="1">
         <v>45901</v>
@@ -2244,15 +2208,15 @@
         <v>46081</v>
       </c>
       <c r="O23" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R23" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -2261,31 +2225,31 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="1">
         <v>45910</v>
@@ -2294,15 +2258,15 @@
         <v>45912</v>
       </c>
       <c r="O24" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="R24" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -2311,42 +2275,42 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O25" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R25" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -2355,31 +2319,31 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M26" s="1">
         <v>45901</v>
@@ -2388,7 +2352,7 @@
         <v>46081</v>
       </c>
       <c r="O26" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="P26">
         <v>342</v>
@@ -2397,12 +2361,12 @@
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -2411,42 +2375,42 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O27" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R27" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -2455,42 +2419,42 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O28" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R28" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -2499,31 +2463,31 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M29" s="1">
         <v>45901</v>
@@ -2532,7 +2496,7 @@
         <v>46081</v>
       </c>
       <c r="O29" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2541,12 +2505,12 @@
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -2555,42 +2519,42 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O30" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R30" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -2599,42 +2563,42 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O31" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R31" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2643,42 +2607,42 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H32" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O32" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R32" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -2687,42 +2651,42 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O33" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R33" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -2731,42 +2695,42 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H34" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O34" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R34" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2775,42 +2739,42 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H35" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O35" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R35" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2819,42 +2783,42 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H36" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O36" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R36" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2863,42 +2827,42 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H37" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O37" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R37" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2907,42 +2871,42 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H38" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O38" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R38" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2951,42 +2915,42 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O39" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2995,42 +2959,42 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O40" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R40" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -3039,42 +3003,42 @@
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H41" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O41" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R41" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -3083,42 +3047,42 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H42" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O42" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R42" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -3127,42 +3091,42 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H43" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O43" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R43" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -3171,31 +3135,31 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H44" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M44" s="1">
         <v>45901</v>
@@ -3204,15 +3168,15 @@
         <v>46081</v>
       </c>
       <c r="O44" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="R44" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -3221,42 +3185,42 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H45" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O45" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R45" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -3265,42 +3229,42 @@
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H46" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O46" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R46" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -3309,31 +3273,31 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H47" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M47" s="1">
         <v>45901</v>
@@ -3342,7 +3306,7 @@
         <v>46081</v>
       </c>
       <c r="O47" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3351,12 +3315,12 @@
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -3365,31 +3329,31 @@
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H48" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M48" s="1">
         <v>45901</v>
@@ -3398,7 +3362,7 @@
         <v>46081</v>
       </c>
       <c r="O48" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3407,12 +3371,12 @@
         <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -3421,42 +3385,42 @@
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H49" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O49" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R49" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -3465,31 +3429,31 @@
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H50" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M50" s="1">
         <v>45931</v>
@@ -3498,15 +3462,15 @@
         <v>46081</v>
       </c>
       <c r="O50" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R50" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -3518,45 +3482,39 @@
         <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H51" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="I51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J51" t="s">
         <v>41</v>
       </c>
       <c r="K51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L51" t="s">
-        <v>65</v>
-      </c>
-      <c r="M51" s="1">
-        <v>45929</v>
-      </c>
-      <c r="N51" s="1">
-        <v>46064</v>
+        <v>64</v>
       </c>
       <c r="O51" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R51" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -3568,45 +3526,39 @@
         <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H52" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="I52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J52" t="s">
         <v>41</v>
       </c>
       <c r="K52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L52" t="s">
-        <v>65</v>
-      </c>
-      <c r="M52" s="1">
-        <v>45930</v>
-      </c>
-      <c r="N52" s="1">
-        <v>46072</v>
+        <v>64</v>
       </c>
       <c r="O52" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R52" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -3618,45 +3570,39 @@
         <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H53" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="I53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
       </c>
       <c r="K53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L53" t="s">
-        <v>65</v>
-      </c>
-      <c r="M53" s="1">
-        <v>45929</v>
-      </c>
-      <c r="N53" s="1">
-        <v>46072</v>
+        <v>64</v>
       </c>
       <c r="O53" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R53" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -3665,676 +3611,658 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H54" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K54" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L54" t="s">
-        <v>65</v>
-      </c>
-      <c r="M54" s="1">
-        <v>45930</v>
-      </c>
-      <c r="N54" s="1">
-        <v>46070</v>
+        <v>64</v>
       </c>
       <c r="O54" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R54" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F55" t="s">
         <v>64</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H55" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K55" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L55" t="s">
         <v>64</v>
       </c>
       <c r="O55" t="s">
-        <v>234</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="R55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F56" t="s">
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L56" t="s">
         <v>64</v>
       </c>
       <c r="O56" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R56" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F57" t="s">
         <v>64</v>
       </c>
       <c r="G57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H57" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L57" t="s">
         <v>64</v>
       </c>
       <c r="O57" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R57" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58" t="s">
         <v>64</v>
       </c>
       <c r="G58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H58" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L58" t="s">
         <v>64</v>
       </c>
       <c r="O58" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R58" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59" t="s">
         <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H59" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L59" t="s">
         <v>64</v>
       </c>
-      <c r="M59" s="1">
-        <v>45901</v>
-      </c>
-      <c r="N59" s="1">
-        <v>46081</v>
-      </c>
       <c r="O59" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="R59" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H60" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O60" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R60" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H61" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O61" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R61" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H62" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O62" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R62" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H63" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O63" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R63" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:18">
       <c r="A64">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H64" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O64" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R64" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:18">
       <c r="A65">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H65" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O65" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R65" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:18">
       <c r="A66">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H66" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O66" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R66" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:18">
       <c r="A67">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H67" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O67" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R67" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:18">
       <c r="A68">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H68" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O68" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R68" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:18">
       <c r="A69">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -4343,42 +4271,48 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H69" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K69" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L69" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="M69" s="1">
+        <v>45901</v>
+      </c>
+      <c r="N69" s="1">
+        <v>46081</v>
       </c>
       <c r="O69" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="R69" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:18">
       <c r="A70">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -4387,42 +4321,42 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H70" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L70" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O70" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R70" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:18">
       <c r="A71">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -4431,42 +4365,42 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H71" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O71" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R71" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="A72">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -4475,163 +4409,178 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H72" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K72" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L72" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="M72" s="1">
+        <v>45901</v>
+      </c>
+      <c r="N72" s="1">
+        <v>46081</v>
       </c>
       <c r="O72" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="R72" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:18">
       <c r="A73">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E73" t="s">
         <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H73" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K73" t="s">
         <v>58</v>
       </c>
       <c r="L73" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="M73" s="1">
+        <v>45901</v>
+      </c>
+      <c r="N73" s="1">
+        <v>46081</v>
       </c>
       <c r="O73" t="s">
-        <v>234</v>
+        <v>223</v>
+      </c>
+      <c r="Q73">
+        <v>144</v>
       </c>
       <c r="R73" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="A74">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H74" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="I74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O74" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R74" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H75" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K75" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M75" s="1">
         <v>45901</v>
@@ -4640,253 +4589,241 @@
         <v>46081</v>
       </c>
       <c r="O75" t="s">
-        <v>235</v>
+        <v>226</v>
+      </c>
+      <c r="P75">
+        <v>72</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
       </c>
       <c r="R75" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H76" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K76" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O76" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R76" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77">
-        <v>540</v>
+        <v>592</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H77" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K77" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O77" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R77" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:18">
       <c r="A78">
-        <v>541</v>
+        <v>596</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H78" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="I78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K78" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L78" t="s">
-        <v>64</v>
-      </c>
-      <c r="M78" s="1">
-        <v>45901</v>
-      </c>
-      <c r="N78" s="1">
-        <v>46081</v>
+        <v>63</v>
       </c>
       <c r="O78" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="R78" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:18">
       <c r="A79">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H79" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="I79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J79" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L79" t="s">
-        <v>64</v>
-      </c>
-      <c r="M79" s="1">
-        <v>45901</v>
-      </c>
-      <c r="N79" s="1">
-        <v>46081</v>
+        <v>63</v>
       </c>
       <c r="O79" t="s">
-        <v>238</v>
-      </c>
-      <c r="P79">
-        <v>72</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="R79" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E80" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H80" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="I80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J80" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K80" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O80" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R80" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -4895,674 +4832,339 @@
         <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
         <v>64</v>
       </c>
       <c r="G81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H81" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="I81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K81" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L81" t="s">
         <v>64</v>
       </c>
       <c r="O81" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R81" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:18">
       <c r="A82">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
         <v>64</v>
       </c>
       <c r="G82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H82" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="I82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L82" t="s">
         <v>64</v>
       </c>
       <c r="O82" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R82" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83">
-        <v>572</v>
+        <v>613</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H83" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="I83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K83" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L83" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="M83" s="1">
+        <v>45901</v>
+      </c>
+      <c r="N83" s="1">
+        <v>46081</v>
       </c>
       <c r="O83" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="R83" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84">
-        <v>573</v>
+        <v>618</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H84" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="I84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K84" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L84" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="M84" s="1">
+        <v>45901</v>
+      </c>
+      <c r="N84" s="1">
+        <v>46081</v>
       </c>
       <c r="O84" t="s">
-        <v>234</v>
+        <v>225</v>
+      </c>
+      <c r="Q84">
+        <v>146</v>
       </c>
       <c r="R84" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:18">
       <c r="A85">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H85" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="I85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K85" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O85" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R85" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86">
-        <v>583</v>
+        <v>642</v>
       </c>
       <c r="B86" t="s">
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F86" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H86" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K86" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L86" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O86" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R86" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="B87" t="s">
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E87" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H87" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K87" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L87" t="s">
-        <v>64</v>
-      </c>
-      <c r="M87" s="1">
-        <v>45901</v>
-      </c>
-      <c r="N87" s="1">
-        <v>46081</v>
+        <v>63</v>
       </c>
       <c r="O87" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="R87" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:18">
       <c r="A88">
-        <v>593</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" t="s">
-        <v>31</v>
-      </c>
-      <c r="D88" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" t="s">
-        <v>52</v>
-      </c>
-      <c r="F88" t="s">
-        <v>64</v>
-      </c>
-      <c r="G88" t="s">
-        <v>152</v>
-      </c>
-      <c r="H88" t="s">
-        <v>227</v>
-      </c>
-      <c r="I88" t="s">
-        <v>152</v>
-      </c>
-      <c r="J88" t="s">
-        <v>36</v>
-      </c>
-      <c r="K88" t="s">
-        <v>52</v>
-      </c>
-      <c r="L88" t="s">
-        <v>64</v>
-      </c>
-      <c r="M88" s="1">
-        <v>45901</v>
-      </c>
-      <c r="N88" s="1">
-        <v>46081</v>
-      </c>
-      <c r="O88" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q88">
-        <v>146</v>
+        <v>658</v>
       </c>
       <c r="R88" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:18">
       <c r="A89">
-        <v>601</v>
+        <v>659</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89" t="s">
-        <v>63</v>
-      </c>
-      <c r="F89" t="s">
-        <v>64</v>
-      </c>
-      <c r="G89" t="s">
-        <v>153</v>
-      </c>
-      <c r="H89" t="s">
-        <v>228</v>
-      </c>
-      <c r="I89" t="s">
-        <v>153</v>
-      </c>
-      <c r="J89" t="s">
-        <v>36</v>
-      </c>
-      <c r="K89" t="s">
-        <v>63</v>
-      </c>
-      <c r="L89" t="s">
-        <v>64</v>
-      </c>
-      <c r="M89" s="1">
-        <v>45901</v>
-      </c>
-      <c r="N89" s="1">
-        <v>46081</v>
-      </c>
-      <c r="O89" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q89">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="R89" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
-      <c r="A90">
-        <v>603</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" t="s">
-        <v>32</v>
-      </c>
-      <c r="D90" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" t="s">
-        <v>53</v>
-      </c>
-      <c r="F90" t="s">
-        <v>64</v>
-      </c>
-      <c r="G90" t="s">
-        <v>154</v>
-      </c>
-      <c r="H90" t="s">
-        <v>229</v>
-      </c>
-      <c r="I90" t="s">
-        <v>154</v>
-      </c>
-      <c r="J90" t="s">
-        <v>36</v>
-      </c>
-      <c r="K90" t="s">
-        <v>53</v>
-      </c>
-      <c r="L90" t="s">
-        <v>64</v>
-      </c>
-      <c r="M90" s="1">
-        <v>45901</v>
-      </c>
-      <c r="N90" s="1">
-        <v>46081</v>
-      </c>
-      <c r="O90" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q90">
-        <v>144</v>
-      </c>
-      <c r="R90" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
-      <c r="A91">
-        <v>610</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" t="s">
-        <v>50</v>
-      </c>
-      <c r="F91" t="s">
-        <v>64</v>
-      </c>
-      <c r="G91" t="s">
-        <v>155</v>
-      </c>
-      <c r="H91" t="s">
-        <v>230</v>
-      </c>
-      <c r="I91" t="s">
-        <v>155</v>
-      </c>
-      <c r="J91" t="s">
-        <v>37</v>
-      </c>
-      <c r="K91" t="s">
-        <v>50</v>
-      </c>
-      <c r="L91" t="s">
-        <v>64</v>
-      </c>
-      <c r="M91" s="1">
-        <v>45901</v>
-      </c>
-      <c r="N91" s="1">
-        <v>46081</v>
-      </c>
-      <c r="O91" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q91">
-        <v>288</v>
-      </c>
-      <c r="R91" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
-      <c r="A92">
-        <v>626</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" t="s">
-        <v>33</v>
-      </c>
-      <c r="D92" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92" t="s">
-        <v>63</v>
-      </c>
-      <c r="F92" t="s">
-        <v>64</v>
-      </c>
-      <c r="G92" t="s">
-        <v>156</v>
-      </c>
-      <c r="H92" t="s">
-        <v>231</v>
-      </c>
-      <c r="I92" t="s">
-        <v>156</v>
-      </c>
-      <c r="J92" t="s">
-        <v>36</v>
-      </c>
-      <c r="K92" t="s">
-        <v>63</v>
-      </c>
-      <c r="L92" t="s">
-        <v>64</v>
-      </c>
-      <c r="O92" t="s">
-        <v>234</v>
-      </c>
-      <c r="R92" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
-      <c r="A93">
-        <v>628</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" t="s">
-        <v>36</v>
-      </c>
-      <c r="E93" t="s">
-        <v>63</v>
-      </c>
-      <c r="F93" t="s">
-        <v>64</v>
-      </c>
-      <c r="G93" t="s">
-        <v>157</v>
-      </c>
-      <c r="H93" t="s">
-        <v>232</v>
-      </c>
-      <c r="I93" t="s">
-        <v>157</v>
-      </c>
-      <c r="J93" t="s">
-        <v>36</v>
-      </c>
-      <c r="K93" t="s">
-        <v>63</v>
-      </c>
-      <c r="L93" t="s">
-        <v>64</v>
-      </c>
-      <c r="O93" t="s">
-        <v>234</v>
-      </c>
-      <c r="R93" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
-      <c r="A94">
-        <v>640</v>
-      </c>
-      <c r="B94" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E94" t="s">
-        <v>55</v>
-      </c>
-      <c r="F94" t="s">
-        <v>64</v>
-      </c>
-      <c r="G94" t="s">
-        <v>158</v>
-      </c>
-      <c r="H94" t="s">
-        <v>233</v>
-      </c>
-      <c r="I94" t="s">
-        <v>158</v>
-      </c>
-      <c r="J94" t="s">
-        <v>39</v>
-      </c>
-      <c r="K94" t="s">
-        <v>55</v>
-      </c>
-      <c r="L94" t="s">
-        <v>64</v>
-      </c>
-      <c r="O94" t="s">
-        <v>234</v>
-      </c>
-      <c r="R94" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
-      <c r="A95">
-        <v>646</v>
-      </c>
-      <c r="R95" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
-      <c r="A96">
-        <v>647</v>
-      </c>
-      <c r="B96" t="s">
-        <v>15</v>
-      </c>
-      <c r="R96" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R96"/>
+  <autoFilter ref="A1:R89"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>